--- a/machinarium/src/test/resources/validators/TestData.xlsx
+++ b/machinarium/src/test/resources/validators/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zukad\OneDrive\Desktop\OOP_Project\machinarium\src\test\resources\validators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EF77E1F6-16D0-4078-B617-592D0E50BA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D47A2151-297B-4CDA-BB00-9B2AD15D4B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UsernameValidatorTestData" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="65" uniqueCount="48">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="81" uniqueCount="57">
   <si>
     <t>Expected Result</t>
   </si>
@@ -174,6 +174,34 @@
   <si>
     <t>adb1
 AAA</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Non-Empty Marker</t>
+  </si>
+  <si>
+    <t>DROP TABLE Users;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT </t>
+  </si>
+  <si>
+    <t>SELECT * FROM Users;</t>
+  </si>
+  <si>
+    <t>DROP DATABASE Machinarium;</t>
+  </si>
+  <si>
+    <t>UPDATE Users SET password="c748db15ab47dfba758ceedf0655043585372cf5cc64388cb9710c3e93959544";</t>
+  </si>
+  <si>
+    <t>INSERT INTO Users(username, password)
+VALUES ("someguyiwannahack", "Easy_Password123");</t>
+  </si>
+  <si>
+    <t>DELETE FROM Users;</t>
   </si>
 </sst>
 </file>
@@ -1025,10 +1053,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1080,7 +1108,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A9" si="0">A3+1</f>
+        <f t="shared" ref="A4:A17" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
@@ -1117,7 +1145,7 @@
         <v>INVALID</v>
       </c>
       <c r="D6" t="str">
-        <f>"Contains at least "&amp;'Configurable Data'!$B$5&amp;" characters."</f>
+        <f>"Contains at least "&amp;'Configurable Data'!$B$6&amp;" characters."</f>
         <v>Contains at least 4 characters.</v>
       </c>
     </row>
@@ -1134,7 +1162,7 @@
         <v>INVALID</v>
       </c>
       <c r="D7" t="str">
-        <f>"Contains at least "&amp;'Configurable Data'!$B$5&amp;" characters."</f>
+        <f>"Contains at least "&amp;'Configurable Data'!$B$6&amp;" characters."</f>
         <v>Contains at least 4 characters.</v>
       </c>
     </row>
@@ -1168,6 +1196,140 @@
       </c>
       <c r="D9" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D11" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
       </c>
     </row>
   </sheetData>
@@ -1178,16 +1340,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="97" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="64.7109375" style="1" customWidth="1"/>
   </cols>
@@ -1233,7 +1395,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A23" si="0">A3+1</f>
+        <f t="shared" ref="A4:A32" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1462,7 +1624,7 @@
         <v>INVALID</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>"Contains at least "&amp;'Configurable Data'!$B$6&amp;" characters."</f>
+        <f>"Contains at least "&amp;'Configurable Data'!$B$7&amp;" characters."</f>
         <v>Contains at least 8 characters.</v>
       </c>
     </row>
@@ -1479,7 +1641,7 @@
         <v>INVALID</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>"Contains at least "&amp;'Configurable Data'!$B$6&amp;" characters."</f>
+        <f>"Contains at least "&amp;'Configurable Data'!$B$7&amp;" characters."</f>
         <v>Contains at least 8 characters.</v>
       </c>
     </row>
@@ -1496,7 +1658,7 @@
         <v>INVALID</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>"Contains at least "&amp;'Configurable Data'!$B$6&amp;" characters."</f>
+        <f>"Contains at least "&amp;'Configurable Data'!$B$7&amp;" characters."</f>
         <v>Contains at least 8 characters.</v>
       </c>
     </row>
@@ -1546,6 +1708,139 @@
       </c>
       <c r="D23" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
       </c>
     </row>
   </sheetData>
@@ -1557,10 +1852,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,19 +1888,27 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>27</v>
       </c>
     </row>

--- a/machinarium/src/test/resources/validators/TestData.xlsx
+++ b/machinarium/src/test/resources/validators/TestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zukad\OneDrive\Desktop\OOP_Project\machinarium\src\test\resources\validators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{D47A2151-297B-4CDA-BB00-9B2AD15D4B24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FD9735AC-4ABD-4DB3-ADCE-52AFD65209DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="81" uniqueCount="57">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="116" uniqueCount="62">
   <si>
     <t>Expected Result</t>
   </si>
@@ -202,6 +202,21 @@
   </si>
   <si>
     <t>DELETE FROM Users;</t>
+  </si>
+  <si>
+    <t>SELECT/*avoid-spaces*/password/**/FROM/**/Members</t>
+  </si>
+  <si>
+    <t>Contains at least 4 characters.</t>
+  </si>
+  <si>
+    <t>select'asdf'as[asdf]into[#MyTable]</t>
+  </si>
+  <si>
+    <t>DELETE/**/FROM/**/Users</t>
+  </si>
+  <si>
+    <t>exec[sp_executesql]N'select''asdf''as[asdf]into[#MyTable]'</t>
   </si>
 </sst>
 </file>
@@ -691,11 +706,14 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1053,16 +1071,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection sqref="A1:D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="93.85546875" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" customWidth="1"/>
   </cols>
@@ -1071,13 +1089,13 @@
       <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1088,95 +1106,80 @@
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="str">
-        <f>'Configurable Data'!$B$2</f>
-        <v>VALID</v>
+      <c r="C2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <f>A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="C3" s="1" t="str">
-        <f>'Configurable Data'!$B$2</f>
-        <v>VALID</v>
+      <c r="C3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A17" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="1" t="str">
-        <f>'Configurable Data'!$B$2</f>
-        <v>VALID</v>
+      <c r="C4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="1" t="str">
-        <f>'Configurable Data'!$B$2</f>
-        <v>VALID</v>
+      <c r="C5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1" t="str">
-        <f>'Configurable Data'!$B$3</f>
-        <v>INVALID</v>
-      </c>
-      <c r="D6" t="str">
-        <f>"Contains at least "&amp;'Configurable Data'!$B$6&amp;" characters."</f>
-        <v>Contains at least 4 characters.</v>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="1" t="str">
-        <f>'Configurable Data'!$B$3</f>
-        <v>INVALID</v>
-      </c>
-      <c r="D7" t="str">
-        <f>"Contains at least "&amp;'Configurable Data'!$B$6&amp;" characters."</f>
-        <v>Contains at least 4 characters.</v>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="1" t="str">
-        <f>'Configurable Data'!$B$3</f>
-        <v>INVALID</v>
+      <c r="C8" t="s">
+        <v>34</v>
       </c>
       <c r="D8" t="s">
         <v>23</v>
@@ -1184,15 +1187,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="1" t="str">
-        <f>'Configurable Data'!$B$3</f>
-        <v>INVALID</v>
+      <c r="C9" t="s">
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>23</v>
@@ -1200,136 +1201,153 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1" t="str">
-        <f>'Configurable Data'!$B$3</f>
-        <v>INVALID</v>
-      </c>
-      <c r="D10" s="1" t="str">
-        <f>'Configurable Data'!$B$4</f>
-        <v>*</v>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="1" t="str">
-        <f>'Configurable Data'!$B$3</f>
-        <v>INVALID</v>
-      </c>
-      <c r="D11" s="1" t="str">
-        <f>'Configurable Data'!$B$4</f>
-        <v>*</v>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="1" t="str">
-        <f>'Configurable Data'!$B$3</f>
-        <v>INVALID</v>
-      </c>
-      <c r="D12" s="1" t="str">
-        <f>'Configurable Data'!$B$4</f>
-        <v>*</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="1" t="str">
-        <f>'Configurable Data'!$B$3</f>
-        <v>INVALID</v>
-      </c>
-      <c r="D13" s="1" t="str">
-        <f>'Configurable Data'!$B$4</f>
-        <v>*</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C14" s="1" t="str">
-        <f>'Configurable Data'!$B$3</f>
-        <v>INVALID</v>
-      </c>
-      <c r="D14" s="1" t="str">
-        <f>'Configurable Data'!$B$4</f>
-        <v>*</v>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C15" s="1" t="str">
-        <f>'Configurable Data'!$B$3</f>
-        <v>INVALID</v>
-      </c>
-      <c r="D15" s="1" t="str">
-        <f>'Configurable Data'!$B$4</f>
-        <v>*</v>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="1" t="str">
-        <f>'Configurable Data'!$B$3</f>
-        <v>INVALID</v>
-      </c>
-      <c r="D16" s="1" t="str">
-        <f>'Configurable Data'!$B$4</f>
-        <v>*</v>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="1" t="str">
-        <f>'Configurable Data'!$B$3</f>
-        <v>INVALID</v>
-      </c>
-      <c r="D17" s="1" t="str">
-        <f>'Configurable Data'!$B$4</f>
-        <v>*</v>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1395,7 +1413,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A32" si="0">A3+1</f>
+        <f t="shared" ref="A4:A31" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">

--- a/machinarium/src/test/resources/validators/TestData.xlsx
+++ b/machinarium/src/test/resources/validators/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zukad\OneDrive\Desktop\OOP_Project\machinarium\src\test\resources\validators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{FD9735AC-4ABD-4DB3-ADCE-52AFD65209DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{33DB7E32-5F0C-4919-A3DD-684D0B121742}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UsernameValidatorTestData" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="116" uniqueCount="62">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="127" uniqueCount="72">
   <si>
     <t>Expected Result</t>
   </si>
@@ -217,6 +217,36 @@
   </si>
   <si>
     <t>exec[sp_executesql]N'select''asdf''as[asdf]into[#MyTable]'</t>
+  </si>
+  <si>
+    <t>Maximum Username Length</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Maximum Password Length</t>
+  </si>
+  <si>
+    <t>madeup_passADWAWDawdawdawdwadwadwadad123131231333333333341241jkfhawdb vkwda___WD?A?WD?DdawdD?W????a</t>
+  </si>
+  <si>
+    <t>madeup_passADWAWDawdawdawdwadwadwadad123131231333333333341241jkfhawdb vkwda___WD?A?WD?DdawdD?W????ab</t>
+  </si>
+  <si>
+    <t>madeup_passADWAWDawdawdawdwadwadwadad123131231333333333341241jkfhawdb vkwda___WD?A?WD?DdawdD?W????abc</t>
+  </si>
+  <si>
+    <t>madeup_passADWAWDawdawdawdwadwadwadad123131231333333333341241jkfhawdb_vkwda___WD_A_WD_DdawdD_W____ab</t>
+  </si>
+  <si>
+    <t>madeup_passADWAWDawdawdawdwadwadwadad123131231333333333341241jkfhawdb_vkwda___WD_A_WD_DdawdD_W____a</t>
+  </si>
+  <si>
+    <t>madeup_passADWAWDawdawdawdwadwadwadad123131231333333333341241jkfhawdb_vkwda___WD_A_WD_DdawdD_W____abc</t>
+  </si>
+  <si>
+    <t>madeup_passADWAWDawdawdawdwadwadwadad1</t>
   </si>
 </sst>
 </file>
@@ -706,7 +736,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
@@ -716,6 +746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1071,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,6 +1381,51 @@
         <v>23</v>
       </c>
     </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ref="A21:A23" si="0">A20+1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="str">
+        <f>'Configurable Data'!$B$2</f>
+        <v>VALID</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="str">
+        <f>'Configurable Data'!$B$2</f>
+        <v>VALID</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f>"Doesn't contain more than "&amp;'Configurable Data'!$B$7&amp;" characters."</f>
+        <v>Doesn't contain more than 100 characters.</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1358,10 +1434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,7 +1489,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A31" si="0">A3+1</f>
+        <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1642,7 +1718,7 @@
         <v>INVALID</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>"Contains at least "&amp;'Configurable Data'!$B$7&amp;" characters."</f>
+        <f>"Contains at least "&amp;'Configurable Data'!$B$8&amp;" characters."</f>
         <v>Contains at least 8 characters.</v>
       </c>
     </row>
@@ -1659,7 +1735,7 @@
         <v>INVALID</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>"Contains at least "&amp;'Configurable Data'!$B$7&amp;" characters."</f>
+        <f>"Contains at least "&amp;'Configurable Data'!$B$8&amp;" characters."</f>
         <v>Contains at least 8 characters.</v>
       </c>
     </row>
@@ -1676,7 +1752,7 @@
         <v>INVALID</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>"Contains at least "&amp;'Configurable Data'!$B$7&amp;" characters."</f>
+        <f>"Contains at least "&amp;'Configurable Data'!$B$8&amp;" characters."</f>
         <v>Contains at least 8 characters.</v>
       </c>
     </row>
@@ -1859,6 +1935,62 @@
       <c r="D31" s="1" t="str">
         <f>'Configurable Data'!$B$4</f>
         <v>*</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>'Configurable Data'!$B$2</f>
+        <v>VALID</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>'Configurable Data'!$B$2</f>
+        <v>VALID</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>'Configurable Data'!$B$2</f>
+        <v>VALID</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <f>"Doesn't contain more than "&amp;'Configurable Data'!$B$9&amp;" characters."</f>
+        <v>Doesn't contain more than 100 characters.</v>
       </c>
     </row>
   </sheetData>
@@ -1870,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1924,10 +2056,26 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/machinarium/src/test/resources/validators/TestData.xlsx
+++ b/machinarium/src/test/resources/validators/TestData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zukad\OneDrive\Desktop\OOP_Project\machinarium\src\test\resources\validators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EF77E1F6-16D0-4078-B617-592D0E50BA93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{463BD6E8-B682-4AEA-BA3B-099EFD0DBD02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="UsernameValidatorTestData" sheetId="2" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="65" uniqueCount="48">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="127" uniqueCount="72">
   <si>
     <t>Expected Result</t>
   </si>
@@ -174,6 +174,79 @@
   <si>
     <t>adb1
 AAA</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Non-Empty Marker</t>
+  </si>
+  <si>
+    <t>DROP TABLE Users;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INSERT </t>
+  </si>
+  <si>
+    <t>SELECT * FROM Users;</t>
+  </si>
+  <si>
+    <t>DROP DATABASE Machinarium;</t>
+  </si>
+  <si>
+    <t>UPDATE Users SET password="c748db15ab47dfba758ceedf0655043585372cf5cc64388cb9710c3e93959544";</t>
+  </si>
+  <si>
+    <t>INSERT INTO Users(username, password)
+VALUES ("someguyiwannahack", "Easy_Password123");</t>
+  </si>
+  <si>
+    <t>DELETE FROM Users;</t>
+  </si>
+  <si>
+    <t>SELECT/*avoid-spaces*/password/**/FROM/**/Members</t>
+  </si>
+  <si>
+    <t>Contains at least 4 characters.</t>
+  </si>
+  <si>
+    <t>select'asdf'as[asdf]into[#MyTable]</t>
+  </si>
+  <si>
+    <t>DELETE/**/FROM/**/Users</t>
+  </si>
+  <si>
+    <t>exec[sp_executesql]N'select''asdf''as[asdf]into[#MyTable]'</t>
+  </si>
+  <si>
+    <t>Maximum Username Length</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>Maximum Password Length</t>
+  </si>
+  <si>
+    <t>madeup_passADWAWDawdawdawdwadwadwadad123131231333333333341241jkfhawdb vkwda___WD?A?WD?DdawdD?W????a</t>
+  </si>
+  <si>
+    <t>madeup_passADWAWDawdawdawdwadwadwadad123131231333333333341241jkfhawdb vkwda___WD?A?WD?DdawdD?W????ab</t>
+  </si>
+  <si>
+    <t>madeup_passADWAWDawdawdawdwadwadwadad123131231333333333341241jkfhawdb vkwda___WD?A?WD?DdawdD?W????abc</t>
+  </si>
+  <si>
+    <t>madeup_passADWAWDawdawdawdwadwadwadad123131231333333333341241jkfhawdb_vkwda___WD_A_WD_DdawdD_W____ab</t>
+  </si>
+  <si>
+    <t>madeup_passADWAWDawdawdawdwadwadwadad123131231333333333341241jkfhawdb_vkwda___WD_A_WD_DdawdD_W____a</t>
+  </si>
+  <si>
+    <t>madeup_passADWAWDawdawdawdwadwadwadad123131231333333333341241jkfhawdb_vkwda___WD_A_WD_DdawdD_W____abc</t>
+  </si>
+  <si>
+    <t>madeup_passADWAWDawdawdawdwadwadwadad1</t>
   </si>
 </sst>
 </file>
@@ -663,13 +736,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1025,16 +1102,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="93.85546875" customWidth="1"/>
     <col min="3" max="3" width="33" customWidth="1"/>
     <col min="4" max="4" width="36.28515625" customWidth="1"/>
   </cols>
@@ -1043,13 +1120,13 @@
       <c r="A1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1060,114 +1137,293 @@
       <c r="B2" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="1" t="str">
+      <c r="C2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" ref="A21:A23" si="0">A20+1</f>
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="1" t="str">
         <f>'Configurable Data'!$B$2</f>
         <v>VALID</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <f>A2+1</f>
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="1" t="str">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="1" t="str">
         <f>'Configurable Data'!$B$2</f>
         <v>VALID</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <f t="shared" ref="A4:A9" si="0">A3+1</f>
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>'Configurable Data'!$B$2</f>
-        <v>VALID</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="1" t="str">
-        <f>'Configurable Data'!$B$2</f>
-        <v>VALID</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="1" t="str">
-        <f>'Configurable Data'!$B$3</f>
-        <v>INVALID</v>
-      </c>
-      <c r="D6" t="str">
-        <f>"Contains at least "&amp;'Configurable Data'!$B$5&amp;" characters."</f>
-        <v>Contains at least 4 characters.</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="1" t="str">
-        <f>'Configurable Data'!$B$3</f>
-        <v>INVALID</v>
-      </c>
-      <c r="D7" t="str">
-        <f>"Contains at least "&amp;'Configurable Data'!$B$5&amp;" characters."</f>
-        <v>Contains at least 4 characters.</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="str">
-        <f>'Configurable Data'!$B$3</f>
-        <v>INVALID</v>
-      </c>
-      <c r="D8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="1" t="str">
-        <f>'Configurable Data'!$B$3</f>
-        <v>INVALID</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f>"Doesn't contain more than "&amp;'Configurable Data'!$B$7&amp;" characters."</f>
+        <v>Doesn't contain more than 100 characters.</v>
       </c>
     </row>
   </sheetData>
@@ -1178,16 +1434,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="97" style="1" customWidth="1"/>
     <col min="3" max="3" width="24" style="1" customWidth="1"/>
     <col min="4" max="4" width="64.7109375" style="1" customWidth="1"/>
   </cols>
@@ -1233,7 +1489,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A23" si="0">A3+1</f>
+        <f t="shared" ref="A4:A35" si="0">A3+1</f>
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
@@ -1462,7 +1718,7 @@
         <v>INVALID</v>
       </c>
       <c r="D18" s="1" t="str">
-        <f>"Contains at least "&amp;'Configurable Data'!$B$6&amp;" characters."</f>
+        <f>"Contains at least "&amp;'Configurable Data'!$B$8&amp;" characters."</f>
         <v>Contains at least 8 characters.</v>
       </c>
     </row>
@@ -1479,7 +1735,7 @@
         <v>INVALID</v>
       </c>
       <c r="D19" s="1" t="str">
-        <f>"Contains at least "&amp;'Configurable Data'!$B$6&amp;" characters."</f>
+        <f>"Contains at least "&amp;'Configurable Data'!$B$8&amp;" characters."</f>
         <v>Contains at least 8 characters.</v>
       </c>
     </row>
@@ -1496,7 +1752,7 @@
         <v>INVALID</v>
       </c>
       <c r="D20" s="1" t="str">
-        <f>"Contains at least "&amp;'Configurable Data'!$B$6&amp;" characters."</f>
+        <f>"Contains at least "&amp;'Configurable Data'!$B$8&amp;" characters."</f>
         <v>Contains at least 8 characters.</v>
       </c>
     </row>
@@ -1546,6 +1802,195 @@
       </c>
       <c r="D23" s="1" t="s">
         <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C27" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f>'Configurable Data'!$B$4</f>
+        <v>*</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f>'Configurable Data'!$B$2</f>
+        <v>VALID</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" s="1" t="str">
+        <f>'Configurable Data'!$B$2</f>
+        <v>VALID</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f>'Configurable Data'!$B$2</f>
+        <v>VALID</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="1" t="str">
+        <f>'Configurable Data'!$B$3</f>
+        <v>INVALID</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <f>"Doesn't contain more than "&amp;'Configurable Data'!$B$9&amp;" characters."</f>
+        <v>Doesn't contain more than 100 characters.</v>
       </c>
     </row>
   </sheetData>
@@ -1557,10 +2002,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1593,20 +2038,44 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>42</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
